--- a/data/trans_bre/P16B06-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16B06-Clase-trans_bre.xlsx
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 52,66</t>
+          <t>0,0; 50,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-41,53; 29,51</t>
+          <t>-41,44; 26,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 108,6</t>
+          <t>0,0; 102,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-43,5; 42,33</t>
+          <t>-41,71; 35,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,69</t>
+          <t>0,0; 57,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -732,12 +732,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-32,16; 0,0</t>
+          <t>-32,36; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 111,66</t>
+          <t>0,0; 135,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,16; 0,0</t>
+          <t>-32,36; 0,0</t>
         </is>
       </c>
     </row>
@@ -807,12 +807,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,26</t>
+          <t>0,0; 23,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,13</t>
+          <t>0,0; 32,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -822,12 +822,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,31</t>
+          <t>0,0; 30,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 64,28</t>
+          <t>0,0; 47,35</t>
         </is>
       </c>
     </row>
@@ -882,7 +882,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-27,75; 2,88</t>
+          <t>-25,91; 1,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -892,12 +892,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 6,46</t>
+          <t>-9,48; 6,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,93; 2,93</t>
+          <t>-26,48; 2,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 7,08</t>
+          <t>-9,53; 7,45</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 59,39</t>
+          <t>0,0; 61,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 0,0</t>
+          <t>-7,76; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 32,52</t>
+          <t>-2,99; 31,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 146,16</t>
+          <t>0,0; 158,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 0,0</t>
+          <t>-7,76; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 49,6</t>
+          <t>-3,01; 49,63</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,27; -1,9</t>
+          <t>-11,91; -1,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,27; -1,9</t>
+          <t>-11,91; -1,93</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 14,98</t>
+          <t>-1,77; 14,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 6,5</t>
+          <t>-2,82; 6,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 6,48</t>
+          <t>-3,19; 7,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 18,49</t>
+          <t>-1,81; 17,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 7,02</t>
+          <t>-2,82; 6,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 7,15</t>
+          <t>-3,21; 8,47</t>
         </is>
       </c>
     </row>
